--- a/Trading Post Run Times.xlsx
+++ b/Trading Post Run Times.xlsx
@@ -29,19 +29,19 @@
     <t>Sample Size</t>
   </si>
   <si>
-    <t>Brute Force</t>
-  </si>
-  <si>
     <t>Trial</t>
-  </si>
-  <si>
-    <t>Divide and Conquer</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
     <t>Run Time (ms)</t>
+  </si>
+  <si>
+    <t>Brute Force - Cost: O(n^2)</t>
+  </si>
+  <si>
+    <t>Divide and Conquer - Cost: O(n^2)</t>
   </si>
 </sst>
 </file>
@@ -99,16 +99,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -422,10 +422,10 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
@@ -439,63 +439,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="I1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="E1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="I1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>100</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9">
         <v>1</v>
       </c>
       <c r="F3" s="3">
@@ -504,7 +504,7 @@
       <c r="G3" s="6">
         <v>22</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="9">
         <v>1</v>
       </c>
       <c r="J3" s="3">
@@ -515,21 +515,21 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="3">
         <v>200</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="E4" s="9"/>
       <c r="F4" s="3">
         <v>200</v>
       </c>
       <c r="G4" s="6">
         <v>7</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="3">
         <v>200</v>
       </c>
@@ -538,21 +538,21 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="3">
         <v>400</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="E5" s="9"/>
       <c r="F5" s="3">
         <v>400</v>
       </c>
       <c r="G5" s="6">
         <v>85</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="9"/>
       <c r="J5" s="3">
         <v>400</v>
       </c>
@@ -561,21 +561,21 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="3">
         <v>600</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="E6" s="9"/>
       <c r="F6" s="3">
         <v>600</v>
       </c>
       <c r="G6" s="6">
         <v>60</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="3">
         <v>600</v>
       </c>
@@ -584,21 +584,21 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="3">
         <v>800</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="E7" s="9"/>
       <c r="F7" s="3">
         <v>800</v>
       </c>
       <c r="G7" s="6">
         <v>58</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="3">
         <v>800</v>
       </c>
@@ -610,16 +610,16 @@
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>2</v>
       </c>
       <c r="B9" s="3">
         <v>100</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="8">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7">
         <v>2</v>
       </c>
       <c r="F9" s="3">
@@ -628,7 +628,7 @@
       <c r="G9" s="6">
         <v>9</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>2</v>
       </c>
       <c r="J9" s="3">
@@ -639,21 +639,21 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="3">
         <v>200</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E10" s="7"/>
       <c r="F10" s="3">
         <v>200</v>
       </c>
       <c r="G10" s="6">
         <v>15</v>
       </c>
-      <c r="I10" s="8"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="3">
         <v>200</v>
       </c>
@@ -662,21 +662,21 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="3">
         <v>400</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E11" s="7"/>
       <c r="F11" s="3">
         <v>400</v>
       </c>
       <c r="G11" s="6">
         <v>23</v>
       </c>
-      <c r="I11" s="8"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="3">
         <v>400</v>
       </c>
@@ -685,21 +685,21 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="3">
         <v>600</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E12" s="7"/>
       <c r="F12" s="3">
         <v>600</v>
       </c>
       <c r="G12" s="6">
         <v>16</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="3">
         <v>600</v>
       </c>
@@ -708,21 +708,21 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="3">
         <v>800</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E13" s="7"/>
       <c r="F13" s="3">
         <v>800</v>
       </c>
       <c r="G13" s="6">
         <v>16</v>
       </c>
-      <c r="I13" s="8"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="3">
         <v>800</v>
       </c>
@@ -734,16 +734,16 @@
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>3</v>
       </c>
       <c r="B15" s="3">
         <v>100</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="8">
+        <v>2</v>
+      </c>
+      <c r="E15" s="7">
         <v>3</v>
       </c>
       <c r="F15" s="3">
@@ -752,7 +752,7 @@
       <c r="G15" s="6">
         <v>15</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <v>3</v>
       </c>
       <c r="J15" s="3">
@@ -763,21 +763,21 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="3">
         <v>200</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E16" s="7"/>
       <c r="F16" s="3">
         <v>200</v>
       </c>
       <c r="G16" s="6">
         <v>16</v>
       </c>
-      <c r="I16" s="8"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="3">
         <v>200</v>
       </c>
@@ -786,21 +786,21 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="3">
         <v>400</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E17" s="7"/>
       <c r="F17" s="3">
         <v>400</v>
       </c>
       <c r="G17" s="6">
         <v>16</v>
       </c>
-      <c r="I17" s="8"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="3">
         <v>400</v>
       </c>
@@ -809,21 +809,21 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="3">
         <v>600</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E18" s="7"/>
       <c r="F18" s="3">
         <v>600</v>
       </c>
       <c r="G18" s="6">
         <v>21</v>
       </c>
-      <c r="I18" s="8"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="3">
         <v>600</v>
       </c>
@@ -832,21 +832,21 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="3">
         <v>800</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E19" s="7"/>
       <c r="F19" s="3">
         <v>800</v>
       </c>
       <c r="G19" s="6">
         <v>10</v>
       </c>
-      <c r="I19" s="8"/>
+      <c r="I19" s="7"/>
       <c r="J19" s="3">
         <v>800</v>
       </c>
@@ -858,16 +858,16 @@
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>4</v>
       </c>
       <c r="B21" s="3">
         <v>100</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="8">
+        <v>2</v>
+      </c>
+      <c r="E21" s="7">
         <v>4</v>
       </c>
       <c r="F21" s="3">
@@ -876,7 +876,7 @@
       <c r="G21" s="6">
         <v>31</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="7">
         <v>4</v>
       </c>
       <c r="J21" s="3">
@@ -887,21 +887,21 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="3">
         <v>200</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E22" s="7"/>
       <c r="F22" s="3">
         <v>200</v>
       </c>
       <c r="G22" s="6">
         <v>20</v>
       </c>
-      <c r="I22" s="8"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="3">
         <v>200</v>
       </c>
@@ -910,21 +910,21 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="3">
         <v>400</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E23" s="7"/>
       <c r="F23" s="3">
         <v>400</v>
       </c>
       <c r="G23" s="6">
         <v>23</v>
       </c>
-      <c r="I23" s="8"/>
+      <c r="I23" s="7"/>
       <c r="J23" s="3">
         <v>400</v>
       </c>
@@ -933,21 +933,21 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="3">
         <v>600</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E24" s="7"/>
       <c r="F24" s="3">
         <v>600</v>
       </c>
       <c r="G24" s="6">
         <v>31</v>
       </c>
-      <c r="I24" s="8"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="3">
         <v>600</v>
       </c>
@@ -956,21 +956,21 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="3">
         <v>800</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E25" s="7"/>
       <c r="F25" s="3">
         <v>800</v>
       </c>
       <c r="G25" s="6">
         <v>0</v>
       </c>
-      <c r="I25" s="8"/>
+      <c r="I25" s="7"/>
       <c r="J25" s="3">
         <v>800</v>
       </c>
@@ -982,16 +982,16 @@
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
+      <c r="A27" s="7">
         <v>5</v>
       </c>
       <c r="B27" s="3">
         <v>100</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="8">
+        <v>2</v>
+      </c>
+      <c r="E27" s="7">
         <v>5</v>
       </c>
       <c r="F27" s="3">
@@ -1000,7 +1000,7 @@
       <c r="G27" s="6">
         <v>28</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="7">
         <v>5</v>
       </c>
       <c r="J27" s="3">
@@ -1011,21 +1011,21 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="3">
         <v>200</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E28" s="7"/>
       <c r="F28" s="3">
         <v>200</v>
       </c>
       <c r="G28" s="6">
         <v>56</v>
       </c>
-      <c r="I28" s="8"/>
+      <c r="I28" s="7"/>
       <c r="J28" s="3">
         <v>200</v>
       </c>
@@ -1034,21 +1034,21 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="3">
         <v>400</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E29" s="7"/>
       <c r="F29" s="3">
         <v>400</v>
       </c>
       <c r="G29" s="6">
         <v>38</v>
       </c>
-      <c r="I29" s="8"/>
+      <c r="I29" s="7"/>
       <c r="J29" s="3">
         <v>400</v>
       </c>
@@ -1057,21 +1057,21 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
+      <c r="A30" s="7"/>
       <c r="B30" s="3">
         <v>600</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E30" s="7"/>
       <c r="F30" s="3">
         <v>600</v>
       </c>
       <c r="G30" s="6">
         <v>40</v>
       </c>
-      <c r="I30" s="8"/>
+      <c r="I30" s="7"/>
       <c r="J30" s="3">
         <v>600</v>
       </c>
@@ -1080,21 +1080,21 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
+      <c r="A31" s="7"/>
       <c r="B31" s="3">
         <v>800</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E31" s="7"/>
       <c r="F31" s="3">
         <v>800</v>
       </c>
       <c r="G31" s="6">
         <v>11</v>
       </c>
-      <c r="I31" s="8"/>
+      <c r="I31" s="7"/>
       <c r="J31" s="3">
         <v>800</v>
       </c>
@@ -1104,14 +1104,7 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I27:I31"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="E15:E19"/>
@@ -1121,7 +1114,14 @@
     <mergeCell ref="I9:I13"/>
     <mergeCell ref="I15:I19"/>
     <mergeCell ref="I21:I25"/>
-    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Trading Post Run Times.xlsx
+++ b/Trading Post Run Times.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Dropbox\Aaron Chau\University Of Washington\2015-2016\Spring\TCSS 343\Workspace\TCSS343_Assignment4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15520" windowHeight="5540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +43,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,13 +98,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -422,41 +418,41 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="I1" s="10" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -485,7 +481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -514,7 +510,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="3">
         <v>200</v>
@@ -537,7 +533,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="3">
         <v>400</v>
@@ -560,7 +556,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="3">
         <v>600</v>
@@ -583,7 +579,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="3">
         <v>800</v>
@@ -606,10 +602,10 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -638,7 +634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="3">
         <v>200</v>
@@ -661,7 +657,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="3">
         <v>400</v>
@@ -684,7 +680,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="3">
         <v>600</v>
@@ -707,7 +703,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="3">
         <v>800</v>
@@ -730,10 +726,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>3</v>
       </c>
@@ -762,7 +758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="3">
         <v>200</v>
@@ -785,7 +781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="3">
         <v>400</v>
@@ -808,7 +804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="3">
         <v>600</v>
@@ -831,7 +827,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="3">
         <v>800</v>
@@ -854,10 +850,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>4</v>
       </c>
@@ -886,7 +882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
       <c r="B22" s="3">
         <v>200</v>
@@ -909,7 +905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
       <c r="B23" s="3">
         <v>400</v>
@@ -932,7 +928,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24" s="3">
         <v>600</v>
@@ -955,7 +951,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
       <c r="B25" s="3">
         <v>800</v>
@@ -978,10 +974,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>5</v>
       </c>
@@ -1010,7 +1006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
       <c r="B28" s="3">
         <v>200</v>
@@ -1033,7 +1029,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
       <c r="B29" s="3">
         <v>400</v>
@@ -1056,7 +1052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="7"/>
       <c r="B30" s="3">
         <v>600</v>
@@ -1079,7 +1075,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="7"/>
       <c r="B31" s="3">
         <v>800</v>
@@ -1104,6 +1100,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="E1:G1"/>
     <mergeCell ref="I27:I31"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A15:A19"/>
@@ -1120,8 +1118,6 @@
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="E3:E7"/>
     <mergeCell ref="A9:A13"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Trading Post Run Times.xlsx
+++ b/Trading Post Run Times.xlsx
@@ -24,15 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
   <si>
     <t>Sample Size</t>
   </si>
   <si>
     <t>Trial</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>Run Time (ms)</t>
@@ -102,13 +99,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -421,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="92" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,22 +436,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="I1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="I1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -464,7 +461,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
@@ -473,7 +470,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>1</v>
@@ -482,7 +479,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -492,8 +489,8 @@
       <c r="B3" s="3">
         <v>100</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
+      <c r="C3" s="3">
+        <v>9</v>
       </c>
       <c r="E3" s="9">
         <v>1</v>
@@ -502,7 +499,7 @@
         <v>100</v>
       </c>
       <c r="G3" s="6">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="I3" s="9">
         <v>1</v>
@@ -511,7 +508,7 @@
         <v>100</v>
       </c>
       <c r="K3" s="3">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -519,22 +516,22 @@
       <c r="B4" s="3">
         <v>200</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
+      <c r="C4" s="3">
+        <v>23</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="3">
         <v>200</v>
       </c>
       <c r="G4" s="6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="3">
         <v>200</v>
       </c>
       <c r="K4" s="3">
-        <v>46</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -542,22 +539,22 @@
       <c r="B5" s="3">
         <v>400</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
+      <c r="C5" s="3">
+        <v>59</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="3">
         <v>400</v>
       </c>
       <c r="G5" s="6">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="3">
         <v>400</v>
       </c>
       <c r="K5" s="3">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -565,22 +562,22 @@
       <c r="B6" s="3">
         <v>600</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
+      <c r="C6" s="3">
+        <v>36</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="3">
         <v>600</v>
       </c>
       <c r="G6" s="6">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="3">
         <v>600</v>
       </c>
       <c r="K6" s="3">
-        <v>80</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -588,22 +585,22 @@
       <c r="B7" s="3">
         <v>800</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
+      <c r="C7" s="3">
+        <v>100</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="3">
         <v>800</v>
       </c>
       <c r="G7" s="6">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="3">
         <v>800</v>
       </c>
       <c r="K7" s="3">
-        <v>132</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -616,8 +613,8 @@
       <c r="B9" s="3">
         <v>100</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
+      <c r="C9" s="3">
+        <v>15</v>
       </c>
       <c r="E9" s="7">
         <v>2</v>
@@ -626,7 +623,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I9" s="7">
         <v>2</v>
@@ -635,7 +632,7 @@
         <v>100</v>
       </c>
       <c r="K9" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -643,22 +640,22 @@
       <c r="B10" s="3">
         <v>200</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
+      <c r="C10" s="3">
+        <v>16</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="3">
         <v>200</v>
       </c>
       <c r="G10" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="3">
         <v>200</v>
       </c>
       <c r="K10" s="6">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -666,22 +663,22 @@
       <c r="B11" s="3">
         <v>400</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>2</v>
+      <c r="C11" s="3">
+        <v>14</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="3">
         <v>400</v>
       </c>
       <c r="G11" s="6">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="3">
         <v>400</v>
       </c>
       <c r="K11" s="6">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -689,8 +686,8 @@
       <c r="B12" s="3">
         <v>600</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>2</v>
+      <c r="C12" s="3">
+        <v>14</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="3">
@@ -704,7 +701,7 @@
         <v>600</v>
       </c>
       <c r="K12" s="6">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -712,22 +709,22 @@
       <c r="B13" s="3">
         <v>800</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>2</v>
+      <c r="C13" s="3">
+        <v>8</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="3">
         <v>800</v>
       </c>
       <c r="G13" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="3">
         <v>800</v>
       </c>
       <c r="K13" s="6">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -740,8 +737,8 @@
       <c r="B15" s="3">
         <v>100</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>2</v>
+      <c r="C15" s="3">
+        <v>22</v>
       </c>
       <c r="E15" s="7">
         <v>3</v>
@@ -750,7 +747,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="6">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I15" s="7">
         <v>3</v>
@@ -759,7 +756,7 @@
         <v>100</v>
       </c>
       <c r="K15" s="6">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -767,22 +764,22 @@
       <c r="B16" s="3">
         <v>200</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>2</v>
+      <c r="C16" s="3">
+        <v>17</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="3">
         <v>200</v>
       </c>
       <c r="G16" s="6">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="3">
         <v>200</v>
       </c>
       <c r="K16" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -790,22 +787,22 @@
       <c r="B17" s="3">
         <v>400</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>2</v>
+      <c r="C17" s="3">
+        <v>17</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="3">
         <v>400</v>
       </c>
       <c r="G17" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="3">
         <v>400</v>
       </c>
       <c r="K17" s="6">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -813,22 +810,22 @@
       <c r="B18" s="3">
         <v>600</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>2</v>
+      <c r="C18" s="3">
+        <v>14</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="3">
         <v>600</v>
       </c>
       <c r="G18" s="6">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="3">
         <v>600</v>
       </c>
       <c r="K18" s="6">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -836,22 +833,22 @@
       <c r="B19" s="3">
         <v>800</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>2</v>
+      <c r="C19" s="3">
+        <v>23</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="3">
         <v>800</v>
       </c>
       <c r="G19" s="6">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="3">
         <v>800</v>
       </c>
       <c r="K19" s="6">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -864,8 +861,8 @@
       <c r="B21" s="3">
         <v>100</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>2</v>
+      <c r="C21" s="3">
+        <v>16</v>
       </c>
       <c r="E21" s="7">
         <v>4</v>
@@ -874,7 +871,7 @@
         <v>100</v>
       </c>
       <c r="G21" s="6">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I21" s="7">
         <v>4</v>
@@ -883,7 +880,7 @@
         <v>100</v>
       </c>
       <c r="K21" s="6">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -891,22 +888,22 @@
       <c r="B22" s="3">
         <v>200</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>2</v>
+      <c r="C22" s="3">
+        <v>16</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="3">
         <v>200</v>
       </c>
       <c r="G22" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="3">
         <v>200</v>
       </c>
       <c r="K22" s="6">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -914,22 +911,22 @@
       <c r="B23" s="3">
         <v>400</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>2</v>
+      <c r="C23" s="3">
+        <v>17</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="3">
         <v>400</v>
       </c>
       <c r="G23" s="6">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="3">
         <v>400</v>
       </c>
       <c r="K23" s="6">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -937,22 +934,22 @@
       <c r="B24" s="3">
         <v>600</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>2</v>
+      <c r="C24" s="3">
+        <v>26</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="3">
         <v>600</v>
       </c>
       <c r="G24" s="6">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="3">
         <v>600</v>
       </c>
       <c r="K24" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -960,22 +957,22 @@
       <c r="B25" s="3">
         <v>800</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>2</v>
+      <c r="C25" s="3">
+        <v>25</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="3">
         <v>800</v>
       </c>
       <c r="G25" s="6">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="3">
         <v>800</v>
       </c>
       <c r="K25" s="6">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -988,8 +985,8 @@
       <c r="B27" s="3">
         <v>100</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>2</v>
+      <c r="C27" s="3">
+        <v>16</v>
       </c>
       <c r="E27" s="7">
         <v>5</v>
@@ -998,7 +995,7 @@
         <v>100</v>
       </c>
       <c r="G27" s="6">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I27" s="7">
         <v>5</v>
@@ -1007,7 +1004,7 @@
         <v>100</v>
       </c>
       <c r="K27" s="6">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1015,22 +1012,22 @@
       <c r="B28" s="3">
         <v>200</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>2</v>
+      <c r="C28" s="3">
+        <v>16</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="3">
         <v>200</v>
       </c>
       <c r="G28" s="6">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="3">
         <v>200</v>
       </c>
       <c r="K28" s="6">
-        <v>65</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1038,22 +1035,22 @@
       <c r="B29" s="3">
         <v>400</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>2</v>
+      <c r="C29" s="3">
+        <v>33</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="3">
         <v>400</v>
       </c>
       <c r="G29" s="6">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="3">
         <v>400</v>
       </c>
       <c r="K29" s="6">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -1061,22 +1058,22 @@
       <c r="B30" s="3">
         <v>600</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>2</v>
+      <c r="C30" s="3">
+        <v>23</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="3">
         <v>600</v>
       </c>
       <c r="G30" s="6">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="3">
         <v>600</v>
       </c>
       <c r="K30" s="6">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1084,26 +1081,28 @@
       <c r="B31" s="3">
         <v>800</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>2</v>
+      <c r="C31" s="3">
+        <v>16</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="3">
         <v>800</v>
       </c>
       <c r="G31" s="6">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="3">
         <v>800</v>
       </c>
       <c r="K31" s="6">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="E1:G1"/>
     <mergeCell ref="I27:I31"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A15:A19"/>
@@ -1120,8 +1119,6 @@
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="E3:E7"/>
     <mergeCell ref="A9:A13"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Trading Post Run Times.xlsx
+++ b/Trading Post Run Times.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Dropbox\Aaron Chau\University Of Washington\2015-2016\Spring\TCSS 343\Workspace\TCSS343_Assignment4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15520" windowHeight="4560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Sample Size</t>
   </si>
@@ -35,19 +31,28 @@
     <t>Run Time (ms)</t>
   </si>
   <si>
-    <t>Brute Force - Cost: O(n^2)</t>
-  </si>
-  <si>
     <t>Divide and Conquer - Cost: O(n^2)</t>
   </si>
   <si>
-    <t>Dynamic - Cost: O(n^2)</t>
+    <t>Brute Force - Cost: O(n^3)</t>
+  </si>
+  <si>
+    <t>Dynamic - Cost: O(nm)</t>
+  </si>
+  <si>
+    <t>Average for Brute Force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average for Divide and Conquer </t>
+  </si>
+  <si>
+    <t>Average for Dynamic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,14 +104,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -154,6 +159,3186 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Divide</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> and Conquer Analysis</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$34:$F$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$34:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0931-4C91-8182-6EA7D670D6D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="326170072"/>
+        <c:axId val="326171056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="326170072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of elements</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="326171056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="326171056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cost</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="326170072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Brute Force Analysis</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$34:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$34:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-93CF-408C-9A46-F5B3676A5267}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="381249616"/>
+        <c:axId val="381249944"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="381249616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of elements</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381249944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="381249944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cost</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381249616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dynamic</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Programming Analysis</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$34:$J$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$34:$K$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-93BA-41E7-8992-414265292141}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="328112464"/>
+        <c:axId val="328111152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="328112464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of elements</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="328111152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="328111152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cost</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="328112464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>91661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>837924</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>39481</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>837924</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>80893</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>50248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>837924</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>184426</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,44 +3604,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.90625" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.1796875" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="I1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -485,8 +3670,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
       <c r="B3" s="3">
@@ -495,7 +3680,7 @@
       <c r="C3" s="3">
         <v>9</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>1</v>
       </c>
       <c r="F3" s="3">
@@ -504,7 +3689,7 @@
       <c r="G3" s="6">
         <v>5</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="7">
         <v>1</v>
       </c>
       <c r="J3" s="3">
@@ -514,22 +3699,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="8"/>
       <c r="B4" s="3">
         <v>200</v>
       </c>
       <c r="C4" s="3">
         <v>23</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="3">
         <v>200</v>
       </c>
       <c r="G4" s="6">
         <v>11</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="I4" s="7"/>
       <c r="J4" s="3">
         <v>200</v>
       </c>
@@ -537,22 +3722,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="8"/>
       <c r="B5" s="3">
         <v>400</v>
       </c>
       <c r="C5" s="3">
         <v>59</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="3">
         <v>400</v>
       </c>
       <c r="G5" s="6">
         <v>50</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="7"/>
       <c r="J5" s="3">
         <v>400</v>
       </c>
@@ -560,22 +3745,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="8"/>
       <c r="B6" s="3">
         <v>600</v>
       </c>
       <c r="C6" s="3">
         <v>36</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="3">
         <v>600</v>
       </c>
       <c r="G6" s="6">
         <v>36</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="3">
         <v>600</v>
       </c>
@@ -583,22 +3768,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="8"/>
       <c r="B7" s="3">
         <v>800</v>
       </c>
       <c r="C7" s="3">
         <v>100</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="3">
         <v>800</v>
       </c>
       <c r="G7" s="6">
         <v>47</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="3">
         <v>800</v>
       </c>
@@ -606,11 +3791,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
         <v>2</v>
       </c>
       <c r="B9" s="3">
@@ -619,7 +3804,7 @@
       <c r="C9" s="3">
         <v>15</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="8">
         <v>2</v>
       </c>
       <c r="F9" s="3">
@@ -628,7 +3813,7 @@
       <c r="G9" s="6">
         <v>8</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="8">
         <v>2</v>
       </c>
       <c r="J9" s="3">
@@ -638,22 +3823,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="8"/>
       <c r="B10" s="3">
         <v>200</v>
       </c>
       <c r="C10" s="3">
         <v>16</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="3">
         <v>200</v>
       </c>
       <c r="G10" s="6">
         <v>14</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="8"/>
       <c r="J10" s="3">
         <v>200</v>
       </c>
@@ -661,22 +3846,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="8"/>
       <c r="B11" s="3">
         <v>400</v>
       </c>
       <c r="C11" s="3">
         <v>14</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="3">
         <v>400</v>
       </c>
       <c r="G11" s="6">
         <v>11</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="8"/>
       <c r="J11" s="3">
         <v>400</v>
       </c>
@@ -684,22 +3869,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="8"/>
       <c r="B12" s="3">
         <v>600</v>
       </c>
       <c r="C12" s="3">
         <v>14</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="3">
         <v>600</v>
       </c>
       <c r="G12" s="6">
         <v>16</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="8"/>
       <c r="J12" s="3">
         <v>600</v>
       </c>
@@ -707,22 +3892,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="8"/>
       <c r="B13" s="3">
         <v>800</v>
       </c>
       <c r="C13" s="3">
         <v>8</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="3">
         <v>800</v>
       </c>
       <c r="G13" s="6">
         <v>15</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="8"/>
       <c r="J13" s="3">
         <v>800</v>
       </c>
@@ -730,11 +3915,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
         <v>3</v>
       </c>
       <c r="B15" s="3">
@@ -743,7 +3928,7 @@
       <c r="C15" s="3">
         <v>22</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="8">
         <v>3</v>
       </c>
       <c r="F15" s="3">
@@ -752,7 +3937,7 @@
       <c r="G15" s="6">
         <v>18</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="8">
         <v>3</v>
       </c>
       <c r="J15" s="3">
@@ -762,22 +3947,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="8"/>
       <c r="B16" s="3">
         <v>200</v>
       </c>
       <c r="C16" s="3">
         <v>17</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="3">
         <v>200</v>
       </c>
       <c r="G16" s="6">
         <v>11</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="3">
         <v>200</v>
       </c>
@@ -785,22 +3970,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="8"/>
       <c r="B17" s="3">
         <v>400</v>
       </c>
       <c r="C17" s="3">
         <v>17</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="3">
         <v>400</v>
       </c>
       <c r="G17" s="6">
         <v>10</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="3">
         <v>400</v>
       </c>
@@ -808,22 +3993,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="8"/>
       <c r="B18" s="3">
         <v>600</v>
       </c>
       <c r="C18" s="3">
         <v>14</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="3">
         <v>600</v>
       </c>
       <c r="G18" s="6">
         <v>10</v>
       </c>
-      <c r="I18" s="7"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="3">
         <v>600</v>
       </c>
@@ -831,22 +4016,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="8"/>
       <c r="B19" s="3">
         <v>800</v>
       </c>
       <c r="C19" s="3">
         <v>23</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="3">
         <v>800</v>
       </c>
       <c r="G19" s="6">
         <v>19</v>
       </c>
-      <c r="I19" s="7"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="3">
         <v>800</v>
       </c>
@@ -854,11 +4039,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
         <v>4</v>
       </c>
       <c r="B21" s="3">
@@ -867,7 +4052,7 @@
       <c r="C21" s="3">
         <v>16</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="8">
         <v>4</v>
       </c>
       <c r="F21" s="3">
@@ -876,7 +4061,7 @@
       <c r="G21" s="6">
         <v>16</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="8">
         <v>4</v>
       </c>
       <c r="J21" s="3">
@@ -886,22 +4071,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="8"/>
       <c r="B22" s="3">
         <v>200</v>
       </c>
       <c r="C22" s="3">
         <v>16</v>
       </c>
-      <c r="E22" s="7"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="3">
         <v>200</v>
       </c>
       <c r="G22" s="6">
         <v>15</v>
       </c>
-      <c r="I22" s="7"/>
+      <c r="I22" s="8"/>
       <c r="J22" s="3">
         <v>200</v>
       </c>
@@ -909,22 +4094,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="8"/>
       <c r="B23" s="3">
         <v>400</v>
       </c>
       <c r="C23" s="3">
         <v>17</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="3">
         <v>400</v>
       </c>
       <c r="G23" s="6">
         <v>10</v>
       </c>
-      <c r="I23" s="7"/>
+      <c r="I23" s="8"/>
       <c r="J23" s="3">
         <v>400</v>
       </c>
@@ -932,22 +4117,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="8"/>
       <c r="B24" s="3">
         <v>600</v>
       </c>
       <c r="C24" s="3">
         <v>26</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="8"/>
       <c r="F24" s="3">
         <v>600</v>
       </c>
       <c r="G24" s="6">
         <v>19</v>
       </c>
-      <c r="I24" s="7"/>
+      <c r="I24" s="8"/>
       <c r="J24" s="3">
         <v>600</v>
       </c>
@@ -955,22 +4140,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="8"/>
       <c r="B25" s="3">
         <v>800</v>
       </c>
       <c r="C25" s="3">
         <v>25</v>
       </c>
-      <c r="E25" s="7"/>
+      <c r="E25" s="8"/>
       <c r="F25" s="3">
         <v>800</v>
       </c>
       <c r="G25" s="6">
         <v>63</v>
       </c>
-      <c r="I25" s="7"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="3">
         <v>800</v>
       </c>
@@ -978,11 +4163,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
         <v>5</v>
       </c>
       <c r="B27" s="3">
@@ -991,7 +4176,7 @@
       <c r="C27" s="3">
         <v>16</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="8">
         <v>5</v>
       </c>
       <c r="F27" s="3">
@@ -1000,7 +4185,7 @@
       <c r="G27" s="6">
         <v>16</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="8">
         <v>5</v>
       </c>
       <c r="J27" s="3">
@@ -1010,22 +4195,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="8"/>
       <c r="B28" s="3">
         <v>200</v>
       </c>
       <c r="C28" s="3">
         <v>16</v>
       </c>
-      <c r="E28" s="7"/>
+      <c r="E28" s="8"/>
       <c r="F28" s="3">
         <v>200</v>
       </c>
       <c r="G28" s="6">
         <v>22</v>
       </c>
-      <c r="I28" s="7"/>
+      <c r="I28" s="8"/>
       <c r="J28" s="3">
         <v>200</v>
       </c>
@@ -1033,22 +4218,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="8"/>
       <c r="B29" s="3">
         <v>400</v>
       </c>
       <c r="C29" s="3">
         <v>33</v>
       </c>
-      <c r="E29" s="7"/>
+      <c r="E29" s="8"/>
       <c r="F29" s="3">
         <v>400</v>
       </c>
       <c r="G29" s="6">
         <v>14</v>
       </c>
-      <c r="I29" s="7"/>
+      <c r="I29" s="8"/>
       <c r="J29" s="3">
         <v>400</v>
       </c>
@@ -1056,22 +4241,22 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="8"/>
       <c r="B30" s="3">
         <v>600</v>
       </c>
       <c r="C30" s="3">
         <v>23</v>
       </c>
-      <c r="E30" s="7"/>
+      <c r="E30" s="8"/>
       <c r="F30" s="3">
         <v>600</v>
       </c>
       <c r="G30" s="6">
         <v>18</v>
       </c>
-      <c r="I30" s="7"/>
+      <c r="I30" s="8"/>
       <c r="J30" s="3">
         <v>600</v>
       </c>
@@ -1079,31 +4264,161 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="8"/>
       <c r="B31" s="3">
         <v>800</v>
       </c>
       <c r="C31" s="3">
         <v>16</v>
       </c>
-      <c r="E31" s="7"/>
+      <c r="E31" s="8"/>
       <c r="F31" s="3">
         <v>800</v>
       </c>
       <c r="G31" s="6">
         <v>37</v>
       </c>
-      <c r="I31" s="7"/>
+      <c r="I31" s="8"/>
       <c r="J31" s="3">
         <v>800</v>
       </c>
       <c r="K31" s="6">
         <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="J33" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B34" s="3">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <f>AVERAGE(C3,C9,C15,C21,C27)</f>
+        <v>15.6</v>
+      </c>
+      <c r="F34" s="3">
+        <v>100</v>
+      </c>
+      <c r="G34" s="3">
+        <f>AVERAGE(G3,G9,G15,G21,G27)</f>
+        <v>12.6</v>
+      </c>
+      <c r="J34" s="3">
+        <v>100</v>
+      </c>
+      <c r="K34" s="3">
+        <f>AVERAGE(K3,K9,K15,K21,K27)</f>
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B35" s="3">
+        <v>200</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:C38" si="0">AVERAGE(C4,C10,C16,C22,C28)</f>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F35" s="3">
+        <v>200</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" ref="G35:G38" si="1">AVERAGE(G4,G10,G16,G22,G28)</f>
+        <v>14.6</v>
+      </c>
+      <c r="J35" s="3">
+        <v>200</v>
+      </c>
+      <c r="K35" s="3">
+        <f t="shared" ref="K35:K38" si="2">AVERAGE(K4,K10,K16,K22,K28)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B36" s="3">
+        <v>400</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="F36" s="3">
+        <v>400</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="J36" s="3">
+        <v>400</v>
+      </c>
+      <c r="K36" s="3">
+        <f t="shared" si="2"/>
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B37" s="3">
+        <v>600</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>22.6</v>
+      </c>
+      <c r="F37" s="3">
+        <v>600</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="1"/>
+        <v>19.8</v>
+      </c>
+      <c r="J37" s="3">
+        <v>600</v>
+      </c>
+      <c r="K37" s="3">
+        <f t="shared" si="2"/>
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B38" s="3">
+        <v>800</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>34.4</v>
+      </c>
+      <c r="F38" s="3">
+        <v>800</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="1"/>
+        <v>36.200000000000003</v>
+      </c>
+      <c r="J38" s="3">
+        <v>800</v>
+      </c>
+      <c r="K38" s="3">
+        <f t="shared" si="2"/>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A7"/>
     <mergeCell ref="E3:E7"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="E9:E13"/>
@@ -1120,10 +4435,9 @@
     <mergeCell ref="I21:I25"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="E27:E31"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>